--- a/Talk Group List.xlsx
+++ b/Talk Group List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\AmateurRadio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="19200" windowHeight="7080" tabRatio="841"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="19200" windowHeight="7080" tabRatio="841"/>
   </bookViews>
   <sheets>
     <sheet name="Favorites" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="110">
   <si>
     <t>Europe</t>
   </si>
@@ -357,15 +357,6 @@
   </si>
   <si>
     <t>BERA 147.090</t>
-  </si>
-  <si>
-    <t>1, 2, 3, 9 all have TS 1 and 2</t>
-  </si>
-  <si>
-    <t>PA 3142 is TS2</t>
-  </si>
-  <si>
-    <t>LINK is TS 2</t>
   </si>
   <si>
     <t>Statewide</t>
@@ -717,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -831,21 +822,6 @@
       </c>
       <c r="B13">
         <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1483,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9">
         <v>3142</v>
